--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>217219.3248403848</v>
+        <v>218288.4774382708</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18918821.64322885</v>
+        <v>19087887.38355838</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9446554.900257193</v>
+        <v>9612256.232354164</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5509738.480536265</v>
+        <v>5429963.716413635</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>235.3721011584466</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.73780220611842</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>164.540418312084</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>270.8817188885619</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>167.5694514298384</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>200.6927609495688</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1057,7 +1059,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1069,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>196.478449474296</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>48.94292206575334</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>153.3118618057382</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>106.3192265349073</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>68.83205621563042</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>84.36839308275499</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1351,10 +1353,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1370,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>128.6552774352945</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>398.6448508774714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1543,10 +1545,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>34.79484432979901</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>254.0338447599021</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>106.3192265349073</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>171.4644004167442</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1765,25 +1767,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>68.83205621563042</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>65.7695357349571</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1853,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>111.5422858787866</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>58.67748875058447</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2005,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>122.6585593529126</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>128.0467705358492</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>93.43037151550925</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>58.67748875058447</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>49.8759779271652</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>24.43802729683349</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>177.4708383572008</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -2330,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>240.434854346162</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -2384,7 +2386,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>58.33552926585376</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>50.94722270604689</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>329.8964633709358</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>71.94762989914831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2731,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,16 +2769,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>44.67506049370256</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>47.83207719706363</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>281.0278647211297</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>218.0080577057887</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3032,13 +3034,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>76.45328601277687</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>78.26653139842003</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -3202,10 +3204,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>78.85215599969354</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.6088837131874</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>39.15851004952361</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3439,7 +3441,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>25.13775189891268</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>180.019659284096</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3557,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>71.94762989914831</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>223.7790684335275</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>74.07475062513807</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3673,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>73.50111029899465</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>84.50036781746144</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>104.7223743992564</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3913,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>161.8970328977319</v>
       </c>
       <c r="W43" t="n">
-        <v>146.3034971231923</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3986,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>116.320193661939</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>84.14510619320845</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686372</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>65.76953573495733</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274.6615895905708</v>
+        <v>808.4343380947867</v>
       </c>
       <c r="C2" t="n">
-        <v>36.91199246082674</v>
+        <v>381.5336081080868</v>
       </c>
       <c r="D2" t="n">
-        <v>36.91199246082674</v>
+        <v>381.5336081080868</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082674</v>
+        <v>381.5336081080868</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082674</v>
+        <v>381.5336081080868</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L2" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M2" t="n">
         <v>493.6978991635576</v>
       </c>
       <c r="N2" t="n">
-        <v>493.6978991635576</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O2" t="n">
-        <v>932.7282368344229</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q2" t="n">
         <v>1845.599623041337</v>
@@ -4358,22 +4360,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V2" t="n">
-        <v>1488.110208167586</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="W2" t="n">
-        <v>1091.718858467933</v>
+        <v>1228.282702386317</v>
       </c>
       <c r="X2" t="n">
-        <v>679.9988596356804</v>
+        <v>1228.282702386317</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.6615895905708</v>
+        <v>1228.282702386317</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J3" t="n">
-        <v>308.6094817404178</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K3" t="n">
-        <v>475.2419029331441</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="L3" t="n">
-        <v>475.2419029331441</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="M3" t="n">
-        <v>932.027809635875</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N3" t="n">
-        <v>932.027809635875</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O3" t="n">
-        <v>932.027809635875</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4437,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4446,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1020.32454672534</v>
+        <v>641.1182993945491</v>
       </c>
       <c r="C4" t="n">
-        <v>848.3519836042556</v>
+        <v>469.1457362734651</v>
       </c>
       <c r="D4" t="n">
-        <v>685.0352107310263</v>
+        <v>469.1457362734651</v>
       </c>
       <c r="E4" t="n">
-        <v>518.8270048838798</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="F4" t="n">
-        <v>346.9652306584402</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U4" t="n">
-        <v>1679.397180301858</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V4" t="n">
-        <v>1679.397180301858</v>
+        <v>831.2842681066147</v>
       </c>
       <c r="W4" t="n">
-        <v>1679.397180301858</v>
+        <v>831.2842681066147</v>
       </c>
       <c r="X4" t="n">
-        <v>1436.833283747663</v>
+        <v>831.2842681066147</v>
       </c>
       <c r="Y4" t="n">
-        <v>1210.490515437405</v>
+        <v>831.2842681066147</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>460.2046132758265</v>
+        <v>632.1510044643211</v>
       </c>
       <c r="C5" t="n">
-        <v>460.2046132758265</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="D5" t="n">
-        <v>36.91199246082674</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J5" t="n">
         <v>399.5154512777223</v>
@@ -4577,10 +4579,10 @@
         <v>856.3013579804531</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.957808655251</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.957808655251</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P5" t="n">
         <v>1271.957808655251</v>
@@ -4601,16 +4603,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W5" t="n">
-        <v>1285.390247612466</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X5" t="n">
-        <v>1285.390247612466</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y5" t="n">
-        <v>880.0529775673565</v>
+        <v>632.1510044643211</v>
       </c>
     </row>
     <row r="6">
@@ -4626,46 +4628,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J6" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>316.0561247023297</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L6" t="n">
-        <v>772.8420314050605</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M6" t="n">
-        <v>772.8420314050605</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N6" t="n">
-        <v>850.0084995511716</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.794406253902</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253902</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4699,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.2115053602647</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C7" t="n">
-        <v>541.2389422391807</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D7" t="n">
-        <v>541.2389422391807</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E7" t="n">
-        <v>375.0307363920342</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F7" t="n">
-        <v>203.1689621665946</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L7" t="n">
-        <v>320.9309218908219</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M7" t="n">
-        <v>712.1167168610727</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N7" t="n">
-        <v>1089.608227737109</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
@@ -4753,22 +4755,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T7" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U7" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="V7" t="n">
-        <v>1647.13654276427</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="W7" t="n">
-        <v>1372.284138936783</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="X7" t="n">
-        <v>1129.720242382588</v>
+        <v>1359.696378713042</v>
       </c>
       <c r="Y7" t="n">
-        <v>903.3774740723304</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>191.7724589312694</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C8" t="n">
-        <v>191.7724589312694</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D8" t="n">
-        <v>191.7724589312694</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E8" t="n">
-        <v>191.7724589312694</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F8" t="n">
-        <v>191.7724589312694</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G8" t="n">
-        <v>191.7724589312694</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K8" t="n">
-        <v>357.6855680512415</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L8" t="n">
-        <v>814.4714747539724</v>
+        <v>475.942330131692</v>
       </c>
       <c r="M8" t="n">
-        <v>814.4714747539724</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.257381456703</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
@@ -4832,22 +4834,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U8" t="n">
-        <v>1366.319142682382</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V8" t="n">
-        <v>1008.829727808632</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W8" t="n">
-        <v>1008.829727808632</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X8" t="n">
-        <v>597.1097289763791</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="Y8" t="n">
-        <v>191.7724589312694</v>
+        <v>1738.206464925269</v>
       </c>
     </row>
     <row r="9">
@@ -4863,43 +4865,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K9" t="n">
-        <v>36.91199246082674</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="L9" t="n">
-        <v>36.91199246082674</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="M9" t="n">
-        <v>36.91199246082674</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="N9" t="n">
-        <v>475.2419029331439</v>
+        <v>1414.716355530931</v>
       </c>
       <c r="O9" t="n">
-        <v>932.0278096358747</v>
+        <v>1414.716355530931</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q9" t="n">
         <v>1845.599623041337</v>
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.4393219715645</v>
+        <v>867.1949701273461</v>
       </c>
       <c r="C10" t="n">
-        <v>36.91199246082674</v>
+        <v>695.2224070062621</v>
       </c>
       <c r="D10" t="n">
-        <v>36.91199246082674</v>
+        <v>531.9056341330328</v>
       </c>
       <c r="E10" t="n">
-        <v>36.91199246082674</v>
+        <v>365.6974282858863</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L10" t="n">
         <v>430.8949765933859</v>
@@ -4990,22 +4992,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T10" t="n">
-        <v>1602.260275267237</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U10" t="n">
-        <v>1322.075826767541</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="V10" t="n">
-        <v>1040.36435937557</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="W10" t="n">
-        <v>765.5119555480831</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="X10" t="n">
-        <v>522.9480589938881</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="Y10" t="n">
-        <v>296.6052906836302</v>
+        <v>1057.360938839412</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>462.8889323129692</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="C11" t="n">
-        <v>462.8889323129692</v>
+        <v>1715.64479734912</v>
       </c>
       <c r="D11" t="n">
-        <v>462.8889323129692</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="E11" t="n">
-        <v>36.91199246082674</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J11" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K11" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L11" t="n">
-        <v>399.5154512777223</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M11" t="n">
-        <v>399.5154512777223</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N11" t="n">
-        <v>856.3013579804531</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O11" t="n">
-        <v>1313.087264683184</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P11" t="n">
-        <v>1769.873171385915</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q11" t="n">
         <v>1845.599623041337</v>
@@ -5066,25 +5068,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T11" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U11" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V11" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W11" t="n">
-        <v>865.5604988558696</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X11" t="n">
-        <v>865.5604988558696</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y11" t="n">
-        <v>462.8889323129692</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="12">
@@ -5100,46 +5102,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E12" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J12" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K12" t="n">
-        <v>36.91199246082674</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="L12" t="n">
-        <v>475.2419029331439</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="M12" t="n">
-        <v>932.0278096358747</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N12" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O12" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P12" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q12" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R12" t="n">
         <v>1845.599623041337</v>
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>911.6745856373313</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C13" t="n">
-        <v>739.7020225162473</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D13" t="n">
-        <v>576.385249643018</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1770437958716</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F13" t="n">
-        <v>238.315269570432</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G13" t="n">
-        <v>72.05829986466412</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K13" t="n">
-        <v>263.4395936666639</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L13" t="n">
-        <v>618.1289149610848</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M13" t="n">
-        <v>1009.314709931336</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N13" t="n">
-        <v>1386.806220807371</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O13" t="n">
-        <v>1742.234349487134</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P13" t="n">
         <v>1845.599623041337</v>
@@ -5236,13 +5238,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W13" t="n">
-        <v>1570.74721921385</v>
+        <v>1588.999779849516</v>
       </c>
       <c r="X13" t="n">
-        <v>1328.183322659655</v>
+        <v>1346.435883295321</v>
       </c>
       <c r="Y13" t="n">
-        <v>1101.840554349397</v>
+        <v>1120.093114985063</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1488.110208167586</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C14" t="n">
-        <v>1061.209478180886</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D14" t="n">
         <v>888.013114123569</v>
@@ -5264,31 +5266,31 @@
         <v>462.0361742714265</v>
       </c>
       <c r="F14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L14" t="n">
-        <v>475.2419029331441</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M14" t="n">
-        <v>932.027809635875</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N14" t="n">
-        <v>1388.813716338606</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O14" t="n">
         <v>1845.599623041337</v>
@@ -5312,16 +5314,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V14" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W14" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X14" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y14" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="15">
@@ -5337,43 +5339,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E15" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M15" t="n">
-        <v>475.2419029331439</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N15" t="n">
-        <v>932.0278096358747</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O15" t="n">
         <v>1388.813716338606</v>
       </c>
       <c r="P15" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q15" t="n">
         <v>1845.599623041337</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.4393219715645</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C16" t="n">
-        <v>36.91199246082674</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D16" t="n">
-        <v>36.91199246082674</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E16" t="n">
-        <v>36.91199246082674</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F16" t="n">
-        <v>36.91199246082674</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G16" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K16" t="n">
         <v>76.20565529896515</v>
@@ -5464,22 +5466,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T16" t="n">
-        <v>1602.260275267237</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U16" t="n">
-        <v>1322.075826767541</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V16" t="n">
-        <v>1040.36435937557</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W16" t="n">
-        <v>765.5119555480831</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X16" t="n">
-        <v>522.9480589938881</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y16" t="n">
-        <v>296.6052906836302</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1425.751258749807</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C17" t="n">
-        <v>998.8505287631069</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D17" t="n">
-        <v>575.5579079481072</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E17" t="n">
-        <v>149.5809680959647</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L17" t="n">
-        <v>493.6978991635576</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M17" t="n">
-        <v>932.027809635875</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N17" t="n">
-        <v>1388.813716338606</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O17" t="n">
-        <v>1845.599623041337</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P17" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q17" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X17" t="n">
-        <v>1845.599623041337</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y17" t="n">
-        <v>1845.599623041337</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C18" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E18" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F18" t="n">
-        <v>184.3418574809131</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K18" t="n">
-        <v>475.2419029331439</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="L18" t="n">
-        <v>475.2419029331439</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="M18" t="n">
-        <v>932.0278096358747</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N18" t="n">
-        <v>1388.813716338606</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O18" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P18" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q18" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R18" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S18" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U18" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V18" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W18" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X18" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y18" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>332.7820902818225</v>
+        <v>775.1045074088649</v>
       </c>
       <c r="C19" t="n">
-        <v>160.8095271607385</v>
+        <v>603.1319442877809</v>
       </c>
       <c r="D19" t="n">
-        <v>160.8095271607385</v>
+        <v>439.8151714145516</v>
       </c>
       <c r="E19" t="n">
-        <v>160.8095271607385</v>
+        <v>273.6069655674052</v>
       </c>
       <c r="F19" t="n">
-        <v>36.91199246082674</v>
+        <v>273.6069655674052</v>
       </c>
       <c r="G19" t="n">
-        <v>36.91199246082674</v>
+        <v>273.6069655674052</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J19" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734052</v>
       </c>
       <c r="K19" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792424</v>
       </c>
       <c r="L19" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736632</v>
       </c>
       <c r="M19" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N19" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O19" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P19" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q19" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S19" t="n">
-        <v>1845.599623041337</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T19" t="n">
-        <v>1602.260275267237</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U19" t="n">
-        <v>1322.075826767541</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V19" t="n">
-        <v>1040.36435937557</v>
+        <v>1482.686776502612</v>
       </c>
       <c r="W19" t="n">
-        <v>765.5119555480831</v>
+        <v>1207.834372675125</v>
       </c>
       <c r="X19" t="n">
-        <v>522.9480589938881</v>
+        <v>965.2704761209305</v>
       </c>
       <c r="Y19" t="n">
-        <v>522.9480589938881</v>
+        <v>965.2704761209305</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>991.7500075300184</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C20" t="n">
-        <v>564.8492775433185</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D20" t="n">
-        <v>564.8492775433185</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E20" t="n">
-        <v>138.8723376911761</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F20" t="n">
-        <v>138.8723376911761</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G20" t="n">
-        <v>138.8723376911761</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L20" t="n">
-        <v>455.3583126271592</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M20" t="n">
-        <v>1006.023847611597</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N20" t="n">
-        <v>1556.689382596036</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O20" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P20" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T20" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U20" t="n">
-        <v>1745.630772103422</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V20" t="n">
-        <v>1388.141357229671</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W20" t="n">
-        <v>991.7500075300184</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X20" t="n">
-        <v>991.7500075300184</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y20" t="n">
-        <v>991.7500075300184</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="21">
@@ -5811,43 +5813,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L21" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M21" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N21" t="n">
+        <v>595.1637600336854</v>
+      </c>
+      <c r="O21" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="O21" t="n">
-        <v>1389.040378766978</v>
-      </c>
       <c r="P21" t="n">
-        <v>1389.040378766978</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="Q21" t="n">
         <v>1853.185855629757</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>438.7123380797763</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>266.7397749586924</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>266.7397749586924</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>266.7397749586924</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>94.87800073325278</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>94.87800073325278</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>94.87800073325278</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5932,28 +5934,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S22" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T22" t="n">
-        <v>1811.43685720741</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U22" t="n">
-        <v>1811.43685720741</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V22" t="n">
-        <v>1811.43685720741</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W22" t="n">
-        <v>1786.751981150003</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X22" t="n">
-        <v>1544.188084595808</v>
+        <v>855.2210751020999</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>628.878306791842</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1600.443997402464</v>
+        <v>874.8142273119413</v>
       </c>
       <c r="C23" t="n">
-        <v>1173.543267415764</v>
+        <v>874.8142273119413</v>
       </c>
       <c r="D23" t="n">
-        <v>750.2506466007642</v>
+        <v>874.8142273119413</v>
       </c>
       <c r="E23" t="n">
-        <v>324.2737067486217</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F23" t="n">
-        <v>324.2737067486217</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G23" t="n">
-        <v>324.2737067486217</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H23" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I23" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J23" t="n">
-        <v>444.0136763269698</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>1159.521984302469</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L23" t="n">
-        <v>1516.331901211868</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M23" t="n">
-        <v>2520.618002630927</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="N23" t="n">
-        <v>3496.869061117628</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="O23" t="n">
-        <v>3496.869061117628</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P23" t="n">
-        <v>3496.869061117628</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q23" t="n">
-        <v>3952.954540621811</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S23" t="n">
-        <v>4070.510875503714</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T23" t="n">
-        <v>3849.585304548347</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U23" t="n">
-        <v>3591.230395144759</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V23" t="n">
-        <v>3233.740980271009</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W23" t="n">
-        <v>2837.349630571356</v>
+        <v>1465.797699232276</v>
       </c>
       <c r="X23" t="n">
-        <v>2425.629631739103</v>
+        <v>1054.077700400023</v>
       </c>
       <c r="Y23" t="n">
-        <v>2020.292361693994</v>
+        <v>1054.077700400023</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>648.5337085415294</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C24" t="n">
-        <v>531.0278050590342</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>427.1878465743193</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>322.4859128472565</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>228.8400825301607</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G24" t="n">
-        <v>134.7863107477647</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H24" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I24" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J24" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K24" t="n">
-        <v>81.41021751007428</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L24" t="n">
-        <v>81.41021751007428</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M24" t="n">
-        <v>81.41021751007428</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N24" t="n">
-        <v>1000.616570079112</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="O24" t="n">
-        <v>1890.097848090584</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P24" t="n">
-        <v>1890.097848090584</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q24" t="n">
-        <v>1890.097848090584</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R24" t="n">
-        <v>1890.097848090584</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S24" t="n">
-        <v>1808.773600651838</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T24" t="n">
-        <v>1666.893664949517</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U24" t="n">
-        <v>1482.125468869153</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V24" t="n">
-        <v>1277.15233000842</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W24" t="n">
-        <v>1080.630952841637</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X24" t="n">
-        <v>917.1536066082998</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y24" t="n">
-        <v>777.4607179615922</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>475.6243305406035</v>
+        <v>505.7818726238041</v>
       </c>
       <c r="C25" t="n">
-        <v>303.6517674195195</v>
+        <v>505.7818726238041</v>
       </c>
       <c r="D25" t="n">
-        <v>140.3349945462902</v>
+        <v>505.7818726238041</v>
       </c>
       <c r="E25" t="n">
-        <v>81.41021751007428</v>
+        <v>505.7818726238041</v>
       </c>
       <c r="F25" t="n">
-        <v>81.41021751007428</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G25" t="n">
-        <v>81.41021751007428</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H25" t="n">
-        <v>81.41021751007428</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I25" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9015457342323</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K25" t="n">
-        <v>365.4291469400695</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L25" t="n">
-        <v>720.1184682344903</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M25" t="n">
-        <v>1111.304263204741</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N25" t="n">
-        <v>1488.795774080777</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O25" t="n">
-        <v>1844.22390276054</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P25" t="n">
-        <v>2134.823114682441</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q25" t="n">
-        <v>2261.823244923203</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2214.784631610376</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2214.784631610376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T25" t="n">
-        <v>1971.445283836276</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U25" t="n">
-        <v>1691.26083533658</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V25" t="n">
-        <v>1409.549367944609</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W25" t="n">
-        <v>1134.696964117122</v>
+        <v>974.688537488257</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1330675629271</v>
+        <v>732.1246409340621</v>
       </c>
       <c r="Y25" t="n">
-        <v>665.7902992526691</v>
+        <v>505.7818726238041</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1503.227037680497</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="C26" t="n">
-        <v>1503.227037680497</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D26" t="n">
-        <v>1079.934416865497</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E26" t="n">
-        <v>746.7056659857641</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F26" t="n">
-        <v>746.7056659857641</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G26" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>595.1637600336857</v>
+        <v>455.358312627159</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.603903091853</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M26" t="n">
-        <v>1100.603903091853</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N26" t="n">
-        <v>1100.603903091853</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O26" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P26" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S26" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T26" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U26" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V26" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W26" t="n">
-        <v>1503.227037680497</v>
+        <v>2152.236878826872</v>
       </c>
       <c r="X26" t="n">
-        <v>1503.227037680497</v>
+        <v>1740.51687999462</v>
       </c>
       <c r="Y26" t="n">
-        <v>1503.227037680497</v>
+        <v>1740.51687999462</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C27" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E27" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F27" t="n">
-        <v>563.6534869019529</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G27" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H27" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I27" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J27" t="n">
-        <v>416.2236218818665</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K27" t="n">
-        <v>572.914647509062</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L27" t="n">
-        <v>1123.5801824935</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="M27" t="n">
-        <v>1674.245717477938</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="N27" t="n">
-        <v>2224.911252462377</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O27" t="n">
-        <v>2224.911252462377</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P27" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q27" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R27" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S27" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T27" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U27" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V27" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W27" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X27" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y27" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1027.91077931376</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="C28" t="n">
-        <v>855.9382161926764</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="D28" t="n">
-        <v>692.6214433194471</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="E28" t="n">
-        <v>526.4132374723006</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F28" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G28" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6415,19 +6417,19 @@
         <v>1764.398243894584</v>
       </c>
       <c r="U28" t="n">
-        <v>1764.398243894584</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V28" t="n">
-        <v>1764.398243894584</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W28" t="n">
-        <v>1489.545840067097</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X28" t="n">
-        <v>1444.419516336084</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y28" t="n">
-        <v>1218.076748025826</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>920.4451377667822</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="C29" t="n">
-        <v>872.1299082747987</v>
+        <v>1214.362747989862</v>
       </c>
       <c r="D29" t="n">
-        <v>448.8372874597989</v>
+        <v>1214.362747989862</v>
       </c>
       <c r="E29" t="n">
-        <v>448.8372874597989</v>
+        <v>788.3858081377192</v>
       </c>
       <c r="F29" t="n">
-        <v>448.8372874597989</v>
+        <v>363.2616263271194</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924753</v>
+        <v>363.2616263271194</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J29" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L29" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="M29" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="N29" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O29" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P29" t="n">
-        <v>2059.098288819458</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q29" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T29" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U29" t="n">
-        <v>1745.630772103422</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V29" t="n">
-        <v>1745.630772103422</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="W29" t="n">
-        <v>1745.630772103422</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="X29" t="n">
-        <v>1745.630772103422</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="Y29" t="n">
-        <v>1340.293502058312</v>
+        <v>1641.263477976561</v>
       </c>
     </row>
     <row r="30">
@@ -6522,43 +6524,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F30" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J30" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K30" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L30" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M30" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N30" t="n">
-        <v>838.3748437825398</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="O30" t="n">
-        <v>838.3748437825398</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P30" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q30" t="n">
         <v>1853.185855629757</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C31" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D31" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E31" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F31" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G31" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H31" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6640,31 +6642,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q31" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R31" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2007.737591668685</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.398243894585</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U31" t="n">
-        <v>1544.188084595808</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V31" t="n">
-        <v>1544.188084595808</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W31" t="n">
-        <v>1544.188084595808</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X31" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y31" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1399.725618125737</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="C32" t="n">
-        <v>972.8248881390371</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D32" t="n">
-        <v>895.5993467119897</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E32" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K32" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L32" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M32" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N32" t="n">
-        <v>1145.829295018124</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O32" t="n">
-        <v>1145.829295018124</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P32" t="n">
-        <v>1696.494830002562</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X32" t="n">
-        <v>2224.911252462377</v>
+        <v>2145.854150039729</v>
       </c>
       <c r="Y32" t="n">
-        <v>1819.573982417267</v>
+        <v>1740.51687999462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C33" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E33" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F33" t="n">
-        <v>563.6534869019529</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G33" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H33" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I33" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J33" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K33" t="n">
-        <v>659.4347056307208</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L33" t="n">
-        <v>1210.100240615159</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.100240615159</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N33" t="n">
-        <v>1210.100240615159</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O33" t="n">
-        <v>1210.100240615159</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P33" t="n">
-        <v>1760.765775599597</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q33" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R33" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S33" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T33" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U33" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V33" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W33" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X33" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y33" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>884.1145108219148</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C34" t="n">
-        <v>712.1419477008308</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D34" t="n">
-        <v>548.8251748276015</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E34" t="n">
-        <v>382.616968980455</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F34" t="n">
-        <v>210.7551947550154</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G34" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6880,28 +6882,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T34" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U34" t="n">
-        <v>1897.688190649853</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V34" t="n">
-        <v>1818.03954822592</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W34" t="n">
-        <v>1543.187144398433</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X34" t="n">
-        <v>1300.623247844238</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y34" t="n">
-        <v>1074.28047953398</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>44.49822504924753</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="C35" t="n">
-        <v>44.49822504924753</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D35" t="n">
-        <v>44.49822504924753</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E35" t="n">
-        <v>44.49822504924753</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J35" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K35" t="n">
-        <v>667.4947029893171</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L35" t="n">
-        <v>667.4947029893171</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M35" t="n">
-        <v>1218.160237973755</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N35" t="n">
         <v>1218.160237973755</v>
       </c>
       <c r="O35" t="n">
-        <v>1218.160237973755</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="P35" t="n">
-        <v>1768.825772958194</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462377</v>
+        <v>2185.357201907301</v>
       </c>
       <c r="U35" t="n">
-        <v>1966.556343058789</v>
+        <v>2185.357201907301</v>
       </c>
       <c r="V35" t="n">
-        <v>1609.066928185038</v>
+        <v>2185.357201907301</v>
       </c>
       <c r="W35" t="n">
-        <v>1212.675578485385</v>
+        <v>2185.357201907301</v>
       </c>
       <c r="X35" t="n">
-        <v>800.9555796531324</v>
+        <v>1773.637203075048</v>
       </c>
       <c r="Y35" t="n">
-        <v>395.6183096080227</v>
+        <v>1773.637203075048</v>
       </c>
     </row>
     <row r="36">
@@ -6996,37 +6998,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F36" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J36" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K36" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L36" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M36" t="n">
-        <v>866.8612493132769</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N36" t="n">
-        <v>1417.526784297715</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O36" t="n">
         <v>1853.185855629757</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1127.679347573485</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C37" t="n">
-        <v>955.7067844524009</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D37" t="n">
-        <v>792.3900115791716</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E37" t="n">
-        <v>626.1818057320252</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F37" t="n">
-        <v>454.3200315065856</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G37" t="n">
-        <v>288.0630618008178</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H37" t="n">
-        <v>144.2667933089722</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J37" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M37" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P37" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T37" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U37" t="n">
-        <v>2007.737591668685</v>
+        <v>2199.519583877615</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.026124276714</v>
+        <v>1917.808116485644</v>
       </c>
       <c r="W37" t="n">
-        <v>1726.026124276714</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X37" t="n">
-        <v>1544.188084595809</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y37" t="n">
-        <v>1317.845316285551</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="38">
@@ -7157,19 +7159,19 @@
         <v>470.47516490139</v>
       </c>
       <c r="E38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J38" t="n">
         <v>407.101683866143</v>
@@ -7178,40 +7180,40 @@
         <v>407.101683866143</v>
       </c>
       <c r="L38" t="n">
-        <v>957.7672188505812</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M38" t="n">
-        <v>1123.5801824935</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N38" t="n">
-        <v>1674.245717477938</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O38" t="n">
-        <v>2224.911252462377</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P38" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q38" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U38" t="n">
-        <v>1966.556343058789</v>
+        <v>2152.236878826872</v>
       </c>
       <c r="V38" t="n">
-        <v>1966.556343058789</v>
+        <v>2152.236878826872</v>
       </c>
       <c r="W38" t="n">
-        <v>1966.556343058789</v>
+        <v>2152.236878826872</v>
       </c>
       <c r="X38" t="n">
         <v>1740.51687999462</v>
@@ -7233,46 +7235,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F39" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I39" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J39" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K39" t="n">
-        <v>669.8354755761777</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L39" t="n">
-        <v>1220.501010560616</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M39" t="n">
-        <v>1220.501010560616</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N39" t="n">
-        <v>1220.501010560616</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O39" t="n">
-        <v>1771.166545545054</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P39" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q39" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R39" t="n">
         <v>1853.185855629757</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>717.8575411161469</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C40" t="n">
-        <v>545.8849779950629</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D40" t="n">
-        <v>382.5682051218336</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E40" t="n">
-        <v>216.3599992746871</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F40" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G40" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H40" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7360,22 +7362,22 @@
         <v>2007.737591668684</v>
       </c>
       <c r="T40" t="n">
-        <v>2007.737591668684</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U40" t="n">
-        <v>1933.494045912124</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V40" t="n">
-        <v>1651.782578520152</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W40" t="n">
-        <v>1376.930174692665</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="X40" t="n">
-        <v>1134.366278138471</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.0235098282126</v>
+        <v>1202.502328002917</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1322.50007669869</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="C41" t="n">
-        <v>895.5993467119897</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="D41" t="n">
-        <v>895.5993467119897</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="E41" t="n">
-        <v>469.6224068598473</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="F41" t="n">
-        <v>44.49822504924753</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J41" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>455.3583126271592</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L41" t="n">
-        <v>1006.023847611597</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M41" t="n">
-        <v>1006.023847611597</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N41" t="n">
-        <v>1556.689382596036</v>
+        <v>667.4947029893167</v>
       </c>
       <c r="O41" t="n">
-        <v>2107.354917580474</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P41" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V41" t="n">
-        <v>2224.911252462377</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W41" t="n">
-        <v>2224.911252462377</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="X41" t="n">
-        <v>1813.191253630124</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="Y41" t="n">
-        <v>1407.853983585014</v>
+        <v>887.3827134031578</v>
       </c>
     </row>
     <row r="42">
@@ -7470,43 +7472,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F42" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K42" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L42" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M42" t="n">
-        <v>287.7093087981016</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N42" t="n">
-        <v>838.3748437825398</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="O42" t="n">
-        <v>1389.040378766978</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P42" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q42" t="n">
         <v>1853.185855629757</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1127.679347573484</v>
+        <v>884.1145108219147</v>
       </c>
       <c r="C43" t="n">
-        <v>955.7067844524004</v>
+        <v>712.1419477008307</v>
       </c>
       <c r="D43" t="n">
-        <v>792.3900115791711</v>
+        <v>548.8251748276014</v>
       </c>
       <c r="E43" t="n">
-        <v>626.1818057320246</v>
+        <v>382.6169689804549</v>
       </c>
       <c r="F43" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G43" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7588,31 +7590,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q43" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T43" t="n">
-        <v>1934.53329137545</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U43" t="n">
-        <v>1934.53329137545</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="V43" t="n">
-        <v>1934.53329137545</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W43" t="n">
-        <v>1786.751981150003</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X43" t="n">
-        <v>1544.188084595808</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y43" t="n">
-        <v>1317.84531628555</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>856.614578510413</v>
+        <v>802.3876566423412</v>
       </c>
       <c r="C44" t="n">
-        <v>856.614578510413</v>
+        <v>802.3876566423412</v>
       </c>
       <c r="D44" t="n">
-        <v>856.614578510413</v>
+        <v>802.3876566423412</v>
       </c>
       <c r="E44" t="n">
-        <v>856.614578510413</v>
+        <v>802.3876566423412</v>
       </c>
       <c r="F44" t="n">
-        <v>739.1194333973433</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G44" t="n">
-        <v>334.7803709867919</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J44" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>399.5154512777223</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L44" t="n">
-        <v>856.3013579804531</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="M44" t="n">
-        <v>1313.087264683184</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N44" t="n">
-        <v>1313.087264683184</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O44" t="n">
-        <v>1388.813716338606</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P44" t="n">
-        <v>1845.599623041337</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q44" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S44" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T44" t="n">
-        <v>1520.30675795911</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U44" t="n">
-        <v>1261.951848555523</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V44" t="n">
-        <v>1261.951848555523</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W44" t="n">
-        <v>1261.951848555523</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="X44" t="n">
-        <v>1261.951848555523</v>
+        <v>802.3876566423412</v>
       </c>
       <c r="Y44" t="n">
-        <v>856.614578510413</v>
+        <v>802.3876566423412</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J45" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K45" t="n">
-        <v>493.6978991635576</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L45" t="n">
-        <v>493.6978991635576</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M45" t="n">
-        <v>493.6978991635576</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N45" t="n">
-        <v>493.6978991635576</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O45" t="n">
-        <v>932.027809635875</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P45" t="n">
-        <v>1388.813716338606</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.093114985063</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C46" t="n">
-        <v>948.1205518639796</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D46" t="n">
-        <v>784.8037789907503</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E46" t="n">
-        <v>618.5955731436038</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="F46" t="n">
-        <v>446.7337989181643</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="G46" t="n">
-        <v>280.4768292123964</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H46" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J46" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>94.40332068498475</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>449.0926419794055</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T46" t="n">
-        <v>1845.599623041337</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U46" t="n">
-        <v>1845.599623041337</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V46" t="n">
-        <v>1845.599623041337</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W46" t="n">
-        <v>1779.165748561582</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X46" t="n">
-        <v>1536.601852007387</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y46" t="n">
-        <v>1310.259083697129</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
   </sheetData>
@@ -7982,22 +7984,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>480.0371081600193</v>
       </c>
       <c r="O2" t="n">
-        <v>480.8559469023526</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>190.7148107956832</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>375.4846162958659</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8146,7 +8148,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>26.57325859521377</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,13 +8227,13 @@
         <v>498.831168659766</v>
       </c>
       <c r="N5" t="n">
-        <v>457.1346235160603</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>457.4303624918454</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8295,16 +8297,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>183.8904958969894</v>
       </c>
       <c r="N6" t="n">
-        <v>99.28895563385584</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>484.5717954825564</v>
@@ -8313,10 +8315,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8386,13 +8388,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>364.3093421868743</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>359.7783135124</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>481.7770299789514</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N9" t="n">
-        <v>464.1005135391146</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>457.0064649527129</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8608,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L10" t="n">
-        <v>380.1908016072373</v>
+        <v>361.8093214193388</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N11" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O11" t="n">
-        <v>498.7908651163583</v>
+        <v>480.1484446815972</v>
       </c>
       <c r="P11" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>112.616039913105</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8766,31 +8768,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>107.8670228313366</v>
       </c>
       <c r="L12" t="n">
-        <v>465.2725720398024</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M12" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8848,7 +8850,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8863,7 +8865,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>24.61956276478495</v>
@@ -8930,7 +8932,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>481.069527758196</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M14" t="n">
         <v>498.831168659766</v>
@@ -8939,7 +8941,7 @@
         <v>498.6795285947802</v>
       </c>
       <c r="O14" t="n">
-        <v>498.7908651163583</v>
+        <v>480.1484446815972</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -9012,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>465.8542658379009</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O15" t="n">
-        <v>484.5717954825564</v>
+        <v>465.9293750477955</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9085,7 +9087,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9167,25 +9169,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>480.1887482250049</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N17" t="n">
-        <v>498.6795285947802</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O17" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>452.5855512828691</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,19 +9245,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>465.1567191589062</v>
+        <v>180.6729970931272</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M18" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N18" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9319,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>78.7088046951723</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
@@ -9328,7 +9330,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
@@ -9404,22 +9406,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>453.322231905261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500402</v>
+        <v>547.8252218830989</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9480,25 +9482,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>268.839651084701</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>181.0208015487723</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9638,28 +9640,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L23" t="n">
-        <v>398.7260999168649</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955938</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9726,16 +9728,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>949.8342934347921</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>267.4386025673079</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>591.9924139104035</v>
+        <v>84.50867025038097</v>
       </c>
       <c r="L26" t="n">
-        <v>548.8576414812763</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O26" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9951,31 +9953,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>180.6729970931268</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>378.9827212526463</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,10 +10114,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642096</v>
       </c>
       <c r="M29" t="n">
         <v>37.43126289943181</v>
@@ -10124,13 +10126,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P29" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q29" t="n">
-        <v>84.86874406016992</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10188,7 +10190,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10197,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N30" t="n">
-        <v>548.7966943283913</v>
+        <v>179.6167914733355</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P30" t="n">
-        <v>577.9986543204228</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10288,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,25 +10351,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N32" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>452.4011488286619</v>
       </c>
       <c r="P32" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>451.134864077236</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10428,25 +10430,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>268.0669951958125</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>181.445652982016</v>
       </c>
       <c r="P33" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>298.7878524343791</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L35" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>110.3411813754876</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P35" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10662,22 +10664,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O36" t="n">
-        <v>463.2315577343861</v>
+        <v>181.445652982016</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10826,25 +10828,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M38" t="n">
-        <v>204.9191049629863</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>181.854840841818</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>372.0892523034619</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L39" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O39" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>84.50867025038121</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>593.5074359500402</v>
+        <v>300.3028744740154</v>
       </c>
       <c r="O41" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11141,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>268.7645418748068</v>
+        <v>181.3705437721218</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11236,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L44" t="n">
-        <v>499.7119481929572</v>
+        <v>182.5915214642096</v>
       </c>
       <c r="M44" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>113.8823246645311</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>498.9752675705655</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11388,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>465.9293750477953</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651629</v>
+        <v>267.4386025673079</v>
       </c>
       <c r="Q45" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -11455,13 +11457,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>271.0481665010509</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.2596215283863</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -22559,13 +22561,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>388.5578695803274</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22600,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>112.8421857026148</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>8.012633829489516</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>255.0622712569945</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -22841,13 +22843,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>191.7346752530878</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22945,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22957,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22993,22 +22995,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>82.41590324375542</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>175.136418561402</v>
       </c>
     </row>
     <row r="8">
@@ -23021,22 +23023,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>141.5778329349673</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23072,22 +23074,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>301.2835723090229</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23179,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>101.4207812742427</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>85.77476340043019</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23230,7 +23232,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23239,10 +23241,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23258,19 +23260,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>293.9764452515384</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.6390464671872</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>18.07003502930996</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>309.3306541137075</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>247.5952941901055</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>101.4207812742427</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23706,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>206.334344054255</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23741,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>309.3306541137071</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -23795,7 +23797,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>348.9253100933457</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>47.48459713027255</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>14.3115352710779</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>201.4593232251963</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24020,19 +24022,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>348.9253100933457</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>48.89490464996159</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>247.6658524923786</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>238.179042291414</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>54.45484039454357</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -24254,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>106.2105945228212</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>119.1959337771383</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>91.8207070826852</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
         <v>255.7713603095518</v>
@@ -24503,10 +24505,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>320.4798063035083</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.8853134985971</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>195.4631970949504</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>374.7996454897692</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>13.86183001957585</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>59.37454630891006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24920,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>342.6064085940728</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
@@ -24980,7 +24982,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>329.3362674455102</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -25129,10 +25131,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>200.0421967183578</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.0409969354273</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -25172,7 +25174,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,22 +25207,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>179.5578051962896</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>252.2448521157861</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>60.11859830455697</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25445,7 +25447,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>183.8237304104035</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25454,7 +25456,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>183.8237304104027</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>114.1895583998069</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8814937157041</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>331.1495128311533</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>316.1505655932374</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -25843,10 +25845,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>116.9973198203195</v>
       </c>
       <c r="W43" t="n">
-        <v>125.8003826660198</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>304.5527463305547</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>323.4576926507218</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>68.15019490184646</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,16 +26076,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>206.3343440542548</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>436411.2752603433</v>
+        <v>436411.2752603434</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>436411.2752603434</v>
+        <v>436411.2752603433</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>436411.2752603433</v>
+        <v>436411.2752603434</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>436411.2752603435</v>
+        <v>491751.5163561997</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>491751.5163561999</v>
+        <v>491751.5163561998</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>698639.703411128</v>
+        <v>491751.5163561998</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>491751.5163561999</v>
+        <v>491751.5163561997</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>491751.5163561997</v>
+        <v>491751.5163561996</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>491751.5163561999</v>
+        <v>491751.5163561998</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>491751.5163561999</v>
+        <v>491751.5163561996</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>491751.5163561999</v>
+        <v>491751.5163561997</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491751.5163561999</v>
+        <v>491751.5163561998</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>436411.2752603434</v>
+        <v>491751.5163561998</v>
       </c>
     </row>
   </sheetData>
@@ -26326,16 +26328,16 @@
         <v>112762.0272804593</v>
       </c>
       <c r="G2" t="n">
-        <v>112762.0272804593</v>
+        <v>127059.143630737</v>
       </c>
       <c r="H2" t="n">
         <v>127059.143630737</v>
       </c>
       <c r="I2" t="n">
-        <v>180508.576145837</v>
+        <v>127059.143630737</v>
       </c>
       <c r="J2" t="n">
-        <v>127059.1436307371</v>
+        <v>127059.143630737</v>
       </c>
       <c r="K2" t="n">
         <v>127059.143630737</v>
@@ -26344,16 +26346,16 @@
         <v>127059.143630737</v>
       </c>
       <c r="M2" t="n">
+        <v>127059.143630737</v>
+      </c>
+      <c r="N2" t="n">
         <v>127059.1436307371</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>127059.1436307371</v>
+      </c>
+      <c r="P2" t="n">
         <v>127059.143630737</v>
-      </c>
-      <c r="O2" t="n">
-        <v>127059.143630737</v>
-      </c>
-      <c r="P2" t="n">
-        <v>112762.0272804593</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>25990.90698746637</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>122695.9243396938</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>120722.5169427568</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>22820.43073295062</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,22 +26429,22 @@
         <v>23350.61219269669</v>
       </c>
       <c r="F4" t="n">
-        <v>23350.61219269669</v>
+        <v>23350.61219269668</v>
       </c>
       <c r="G4" t="n">
-        <v>23350.61219269668</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="H4" t="n">
         <v>26326.44296043127</v>
       </c>
       <c r="I4" t="n">
-        <v>37451.51614998375</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="J4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="K4" t="n">
-        <v>26326.44296043128</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="L4" t="n">
         <v>26326.44296043127</v>
@@ -26451,13 +26453,13 @@
         <v>26326.44296043127</v>
       </c>
       <c r="N4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="O4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="P4" t="n">
-        <v>23350.61219269669</v>
+        <v>26326.44296043126</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="I5" t="n">
-        <v>61871.76530765645</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-126895.0198005862</v>
       </c>
       <c r="C6" t="n">
-        <v>27730.70081753429</v>
+        <v>27730.70081753426</v>
       </c>
       <c r="D6" t="n">
         <v>27730.70081753428</v>
       </c>
       <c r="E6" t="n">
+        <v>61358.3008175343</v>
+      </c>
+      <c r="F6" t="n">
         <v>61358.30081753428</v>
       </c>
-      <c r="F6" t="n">
-        <v>61358.30081753429</v>
-      </c>
       <c r="G6" t="n">
-        <v>61358.30081753429</v>
+        <v>40923.1426454113</v>
       </c>
       <c r="H6" t="n">
-        <v>41328.62677726234</v>
+        <v>66914.04963287766</v>
       </c>
       <c r="I6" t="n">
-        <v>-41510.62965149704</v>
+        <v>66914.04963287766</v>
       </c>
       <c r="J6" t="n">
+        <v>-53808.46730987917</v>
+      </c>
+      <c r="K6" t="n">
         <v>66914.04963287766</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>66914.04963287768</v>
+      </c>
+      <c r="M6" t="n">
         <v>66914.04963287764</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
+        <v>66914.04963287769</v>
+      </c>
+      <c r="O6" t="n">
+        <v>44093.61889992708</v>
+      </c>
+      <c r="P6" t="n">
         <v>66914.04963287764</v>
-      </c>
-      <c r="M6" t="n">
-        <v>66914.04963287766</v>
-      </c>
-      <c r="N6" t="n">
-        <v>66914.04963287764</v>
-      </c>
-      <c r="O6" t="n">
-        <v>66914.04963287764</v>
-      </c>
-      <c r="P6" t="n">
-        <v>61358.30081753428</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="I4" t="n">
-        <v>1017.627718875928</v>
+        <v>556.227813115594</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603343</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>461.399905760334</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34702,22 +34704,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="O2" t="n">
-        <v>443.4649875463285</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.3155769623498</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>352.3878357835379</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34866,7 +34868,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>5.82435761961338</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34942,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N5" t="n">
-        <v>419.8550006816143</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35015,28 +35017,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>160.7937153846614</v>
       </c>
       <c r="N6" t="n">
-        <v>77.94592742031416</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35106,13 +35108,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>341.8101546884499</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N9" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>435.2356237478842</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>358.2720417115361</v>
+        <v>339.8905615236376</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N11" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O11" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="P11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>85.46778899800329</v>
       </c>
       <c r="L12" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35583,7 +35585,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35650,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="M14" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="N14" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="O14" t="n">
         <v>442.7574853255731</v>
-      </c>
-      <c r="M14" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="N14" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O14" t="n">
-        <v>461.3999057603342</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O15" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>442.7574853255731</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N17" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O17" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>442.7574853255729</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M18" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127044</v>
       </c>
       <c r="K19" t="n">
         <v>228.8157587937749</v>
@@ -36048,7 +36050,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36124,22 +36126,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486529</v>
       </c>
       <c r="O20" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>245.6677613624788</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L23" t="n">
-        <v>360.414057484242</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>263.0232516395697</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>928.4912652212505</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>245.6677613624792</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="L26" t="n">
-        <v>510.5455990486534</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>158.2737632597934</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>357.2118800478177</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,10 +36834,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36844,13 +36846,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.74406945557187</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N30" t="n">
-        <v>527.4536661148496</v>
+        <v>158.2737632597939</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P30" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37008,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="P32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>245.6677613624791</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="P33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>263.0232516395698</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>73.06155854104156</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O36" t="n">
-        <v>440.0596680121639</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M38" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>349.6900184701286</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L39" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="O41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>245.6677613624788</v>
+        <v>158.2737632597939</v>
       </c>
       <c r="N42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37956,7 +37958,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L44" t="n">
-        <v>461.3999057603342</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="M44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603342</v>
+        <v>245.6677613624792</v>
       </c>
       <c r="Q45" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38177,13 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>248.4727266095651</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
         <v>381.3045564404402</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>218288.4774382708</v>
+        <v>212675.4885266974</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19087887.38355838</v>
+        <v>19087887.38355839</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9612256.232354164</v>
+        <v>9612256.232354157</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.73780220611842</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>147.3297678499181</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -822,13 +822,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>5.116165641800856</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>270.8817188885619</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>167.5694514298384</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>50.97646617835985</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>265.482246346797</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>48.94292206575334</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>18.02452919221914</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>106.3192265349073</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>84.36839308275499</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>277.222705941356</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>128.6552774352945</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>91.23726934226355</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>124.4776998367294</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>254.0338447599021</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106.3192265349073</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.995605349316488</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>31.3347129158452</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1782,10 +1782,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>65.7695357349571</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>117.7395304238327</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>58.67748875058447</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>128.0467705358492</v>
+        <v>125.4203831793929</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2086,19 +2086,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>58.67748875058447</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>197.0354027824665</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>8.209635605837617</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>49.8759779271652</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>177.4708383572008</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>24.1295862066223</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F25" t="n">
-        <v>50.94722270604689</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -2566,7 +2566,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>218.5560090896485</v>
       </c>
       <c r="W26" t="n">
-        <v>71.94762989914831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.378995526347924</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>281.0278647211297</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -2851,13 +2851,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>82.38632349887008</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>78.26653139842003</v>
+        <v>116.9342260428336</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>149.7181052831733</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -3207,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>404.4262599302743</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>39.15851004952361</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>25.13775189891268</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>71.94762989914831</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>275.6129445475027</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.07475062513807</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3723,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>185.7099446844612</v>
       </c>
       <c r="F41" t="n">
-        <v>104.7223743992564</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3903,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.8970328977319</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>242.5938981288117</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>84.14510619320845</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>38.8570049262737</v>
       </c>
       <c r="G46" t="n">
-        <v>96.44420510686372</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>808.4343380947867</v>
+        <v>1291.444405673078</v>
       </c>
       <c r="C2" t="n">
-        <v>381.5336081080868</v>
+        <v>864.5436756863778</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5336081080868</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="E2" t="n">
-        <v>381.5336081080868</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F2" t="n">
-        <v>381.5336081080868</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G2" t="n">
-        <v>369.6772422433207</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735552</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082673</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082673</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M2" t="n">
-        <v>493.6978991635576</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N2" t="n">
-        <v>932.0278096358751</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O2" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
@@ -4360,22 +4360,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U2" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1624.67405208597</v>
+        <v>1696.781675718187</v>
       </c>
       <c r="W2" t="n">
-        <v>1228.282702386317</v>
+        <v>1696.781675718187</v>
       </c>
       <c r="X2" t="n">
-        <v>1228.282702386317</v>
+        <v>1696.781675718187</v>
       </c>
       <c r="Y2" t="n">
-        <v>1228.282702386317</v>
+        <v>1291.444405673078</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K3" t="n">
-        <v>44.35863542273857</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L3" t="n">
-        <v>501.1445421254694</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M3" t="n">
-        <v>850.0084995511719</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N3" t="n">
-        <v>850.0084995511719</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O3" t="n">
-        <v>1306.794406253903</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P3" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4439,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>641.1182993945491</v>
+        <v>881.6961223161211</v>
       </c>
       <c r="C4" t="n">
-        <v>469.1457362734651</v>
+        <v>709.7235591950371</v>
       </c>
       <c r="D4" t="n">
-        <v>469.1457362734651</v>
+        <v>546.4067863218078</v>
       </c>
       <c r="E4" t="n">
-        <v>302.9375304263186</v>
+        <v>380.1985804746613</v>
       </c>
       <c r="F4" t="n">
-        <v>302.9375304263186</v>
+        <v>208.3368062492217</v>
       </c>
       <c r="G4" t="n">
-        <v>136.6805607205508</v>
+        <v>42.07983654345387</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>42.07983654345387</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1363.171364120812</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
@@ -4518,22 +4518,22 @@
         <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.902165973849</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V4" t="n">
-        <v>831.2842681066147</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="W4" t="n">
-        <v>831.2842681066147</v>
+        <v>1071.862091028187</v>
       </c>
       <c r="X4" t="n">
-        <v>831.2842681066147</v>
+        <v>1071.862091028187</v>
       </c>
       <c r="Y4" t="n">
-        <v>831.2842681066147</v>
+        <v>1071.862091028187</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>632.1510044643211</v>
+        <v>492.7424348495194</v>
       </c>
       <c r="C5" t="n">
-        <v>462.8889323129692</v>
+        <v>492.7424348495194</v>
       </c>
       <c r="D5" t="n">
-        <v>462.8889323129692</v>
+        <v>492.7424348495194</v>
       </c>
       <c r="E5" t="n">
-        <v>36.91199246082673</v>
+        <v>492.7424348495194</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082673</v>
+        <v>492.7424348495194</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082673</v>
+        <v>88.40337243896801</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L5" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M5" t="n">
         <v>856.3013579804531</v>
@@ -4594,25 +4594,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W5" t="n">
-        <v>1449.208273341683</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="X5" t="n">
-        <v>1037.488274509431</v>
+        <v>492.7424348495194</v>
       </c>
       <c r="Y5" t="n">
-        <v>632.1510044643211</v>
+        <v>492.7424348495194</v>
       </c>
     </row>
     <row r="6">
@@ -4622,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K6" t="n">
         <v>772.8420314050604</v>
@@ -4655,19 +4655,19 @@
         <v>1229.627938107791</v>
       </c>
       <c r="M6" t="n">
-        <v>1388.813716338606</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N6" t="n">
-        <v>1388.813716338606</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="O6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4676,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4685,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1120.093114985063</v>
+        <v>308.6531238416347</v>
       </c>
       <c r="C7" t="n">
-        <v>948.1205518639796</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="D7" t="n">
-        <v>784.8037789907503</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="E7" t="n">
-        <v>618.5955731436038</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H7" t="n">
         <v>136.6805607205508</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P7" t="n">
         <v>1845.599623041337</v>
@@ -4749,28 +4749,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T7" t="n">
-        <v>1602.260275267236</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U7" t="n">
-        <v>1602.260275267236</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V7" t="n">
-        <v>1602.260275267236</v>
+        <v>993.3257460627433</v>
       </c>
       <c r="W7" t="n">
-        <v>1602.260275267236</v>
+        <v>725.1618608639584</v>
       </c>
       <c r="X7" t="n">
-        <v>1359.696378713042</v>
+        <v>725.1618608639584</v>
       </c>
       <c r="Y7" t="n">
-        <v>1310.259083697129</v>
+        <v>498.8190925537004</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1738.206464925269</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="C8" t="n">
         <v>1311.305734938569</v>
@@ -4792,64 +4792,64 @@
         <v>462.0361742714265</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L8" t="n">
-        <v>475.942330131692</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M8" t="n">
-        <v>932.7282368344228</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N8" t="n">
-        <v>932.7282368344228</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O8" t="n">
-        <v>1389.514143537154</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1723.025733770821</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1723.025733770821</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1723.025733770821</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1723.025733770821</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.206464925269</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="Y8" t="n">
-        <v>1738.206464925269</v>
+        <v>1311.305734938569</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K9" t="n">
-        <v>501.1445421254694</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L9" t="n">
-        <v>501.1445421254694</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="M9" t="n">
-        <v>957.9304488282003</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N9" t="n">
-        <v>1414.716355530931</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O9" t="n">
-        <v>1414.716355530931</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4913,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4922,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="10">
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>867.1949701273461</v>
+        <v>687.8593711724252</v>
       </c>
       <c r="C10" t="n">
-        <v>695.2224070062621</v>
+        <v>515.8868080513412</v>
       </c>
       <c r="D10" t="n">
-        <v>531.9056341330328</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="E10" t="n">
-        <v>365.6974282858863</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="F10" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
         <v>94.40332068498475</v>
       </c>
       <c r="K10" t="n">
-        <v>94.40332068498475</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
@@ -4989,25 +4989,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="U10" t="n">
-        <v>1565.415174541641</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="V10" t="n">
-        <v>1283.70370714967</v>
+        <v>1395.441640266173</v>
       </c>
       <c r="W10" t="n">
-        <v>1283.70370714967</v>
+        <v>1120.589236438686</v>
       </c>
       <c r="X10" t="n">
-        <v>1283.70370714967</v>
+        <v>878.0253398844909</v>
       </c>
       <c r="Y10" t="n">
-        <v>1057.360938839412</v>
+        <v>878.0253398844909</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1845.599623041337</v>
+        <v>758.0729918017917</v>
       </c>
       <c r="C11" t="n">
-        <v>1715.64479734912</v>
+        <v>758.0729918017917</v>
       </c>
       <c r="D11" t="n">
-        <v>1292.35217653412</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E11" t="n">
-        <v>866.3752366819779</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F11" t="n">
-        <v>441.2510548713781</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J11" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L11" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M11" t="n">
-        <v>950.4838058662883</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N11" t="n">
-        <v>1407.269712569019</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O11" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P11" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q11" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="X11" t="n">
-        <v>1845.599623041337</v>
+        <v>850.23184972327</v>
       </c>
       <c r="Y11" t="n">
-        <v>1845.599623041337</v>
+        <v>758.0729918017917</v>
       </c>
     </row>
     <row r="12">
@@ -5102,43 +5102,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J12" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K12" t="n">
-        <v>393.2225928484411</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L12" t="n">
-        <v>850.0084995511719</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M12" t="n">
-        <v>850.0084995511719</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N12" t="n">
-        <v>850.0084995511719</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O12" t="n">
-        <v>850.0084995511719</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P12" t="n">
-        <v>1306.794406253903</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q12" t="n">
         <v>1763.580312956633</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.093114985063</v>
+        <v>162.6470428009574</v>
       </c>
       <c r="C13" t="n">
-        <v>948.1205518639796</v>
+        <v>162.6470428009574</v>
       </c>
       <c r="D13" t="n">
-        <v>784.8037789907503</v>
+        <v>162.6470428009574</v>
       </c>
       <c r="E13" t="n">
-        <v>618.5955731436038</v>
+        <v>162.6470428009574</v>
       </c>
       <c r="F13" t="n">
-        <v>446.7337989181643</v>
+        <v>162.6470428009574</v>
       </c>
       <c r="G13" t="n">
-        <v>280.4768292123964</v>
+        <v>162.6470428009574</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K13" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L13" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M13" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N13" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O13" t="n">
-        <v>1555.000411119436</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P13" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
@@ -5226,25 +5226,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S13" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T13" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U13" t="n">
-        <v>1845.599623041337</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V13" t="n">
-        <v>1845.599623041337</v>
+        <v>870.229311894705</v>
       </c>
       <c r="W13" t="n">
-        <v>1588.999779849516</v>
+        <v>595.376908067218</v>
       </c>
       <c r="X13" t="n">
-        <v>1346.435883295321</v>
+        <v>352.8130115130231</v>
       </c>
       <c r="Y13" t="n">
-        <v>1120.093114985063</v>
+        <v>352.8130115130231</v>
       </c>
     </row>
     <row r="14">
@@ -5266,64 +5266,64 @@
         <v>462.0361742714265</v>
       </c>
       <c r="F14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>36.91199246082673</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L14" t="n">
-        <v>493.6978991635576</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M14" t="n">
-        <v>950.4838058662883</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N14" t="n">
-        <v>1407.269712569019</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O14" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P14" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q14" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R14" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041337</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="X14" t="n">
-        <v>1845.599623041337</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="Y14" t="n">
-        <v>1845.599623041337</v>
+        <v>1738.206464925269</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E15" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K15" t="n">
-        <v>36.91199246082673</v>
+        <v>393.2225928484407</v>
       </c>
       <c r="L15" t="n">
-        <v>36.91199246082673</v>
+        <v>393.2225928484407</v>
       </c>
       <c r="M15" t="n">
-        <v>493.6978991635576</v>
+        <v>393.2225928484407</v>
       </c>
       <c r="N15" t="n">
-        <v>950.4838058662883</v>
+        <v>393.2225928484407</v>
       </c>
       <c r="O15" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P15" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q15" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R15" t="n">
         <v>1845.599623041337</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.093114985063</v>
+        <v>406.6819615595546</v>
       </c>
       <c r="C16" t="n">
-        <v>948.1205518639796</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="D16" t="n">
-        <v>784.8037789907503</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="E16" t="n">
-        <v>618.5955731436038</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F16" t="n">
-        <v>446.7337989181643</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G16" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K16" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L16" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M16" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N16" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O16" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P16" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S16" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U16" t="n">
-        <v>1845.599623041337</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V16" t="n">
-        <v>1845.599623041337</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W16" t="n">
-        <v>1779.165748561582</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="X16" t="n">
-        <v>1536.601852007387</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="Y16" t="n">
-        <v>1310.259083697129</v>
+        <v>596.8479302716203</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1745.792697513689</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C17" t="n">
-        <v>1318.891967526989</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D17" t="n">
-        <v>895.5993467119897</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E17" t="n">
-        <v>469.6224068598473</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924752</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L17" t="n">
-        <v>44.49822504924752</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M17" t="n">
-        <v>595.1637600336854</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N17" t="n">
-        <v>1145.829295018124</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O17" t="n">
-        <v>1696.494830002561</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P17" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q17" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462376</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462376</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462376</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="X17" t="n">
-        <v>2165.64106180522</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="Y17" t="n">
-        <v>2165.64106180522</v>
+        <v>1780.689568770218</v>
       </c>
     </row>
     <row r="18">
@@ -5576,46 +5576,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>201.1892506764434</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L18" t="n">
-        <v>751.8547856608814</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.520320645319</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N18" t="n">
-        <v>1302.520320645319</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O18" t="n">
-        <v>1853.185855629757</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P18" t="n">
-        <v>1853.185855629757</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q18" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R18" t="n">
         <v>1853.185855629757</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>775.1045074088649</v>
+        <v>1010.801766558675</v>
       </c>
       <c r="C19" t="n">
-        <v>603.1319442877809</v>
+        <v>838.8292034375913</v>
       </c>
       <c r="D19" t="n">
-        <v>439.8151714145516</v>
+        <v>675.512430564362</v>
       </c>
       <c r="E19" t="n">
-        <v>273.6069655674052</v>
+        <v>509.3042247172156</v>
       </c>
       <c r="F19" t="n">
-        <v>273.6069655674052</v>
+        <v>337.442450491776</v>
       </c>
       <c r="G19" t="n">
-        <v>273.6069655674052</v>
+        <v>171.1854807860081</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734052</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792424</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R19" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S19" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U19" t="n">
-        <v>1764.398243894584</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="V19" t="n">
-        <v>1482.686776502612</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="W19" t="n">
-        <v>1207.834372675125</v>
+        <v>1669.874400135194</v>
       </c>
       <c r="X19" t="n">
-        <v>965.2704761209305</v>
+        <v>1427.310503580999</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.2704761209305</v>
+        <v>1200.967735270741</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1745.792697513689</v>
+        <v>769.2673335619127</v>
       </c>
       <c r="C20" t="n">
-        <v>1318.891967526989</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="D20" t="n">
-        <v>895.5993467119897</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E20" t="n">
-        <v>469.6224068598473</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L20" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M20" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N20" t="n">
-        <v>549.9383681074139</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O20" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P20" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.911252462376</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W20" t="n">
-        <v>2224.911252462376</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X20" t="n">
-        <v>2165.64106180522</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="Y20" t="n">
-        <v>2165.64106180522</v>
+        <v>1189.115697853443</v>
       </c>
     </row>
     <row r="21">
@@ -5813,43 +5813,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K21" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L21" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M21" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N21" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O21" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P21" t="n">
-        <v>1696.494830002561</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q21" t="n">
         <v>1853.185855629757</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.7123380797763</v>
+        <v>729.0902991667033</v>
       </c>
       <c r="C22" t="n">
-        <v>266.7397749586924</v>
+        <v>557.1177360456193</v>
       </c>
       <c r="D22" t="n">
-        <v>266.7397749586924</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E22" t="n">
-        <v>266.7397749586924</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F22" t="n">
-        <v>94.87800073325278</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G22" t="n">
-        <v>94.87800073325278</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
-        <v>94.87800073325278</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5934,28 +5934,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T22" t="n">
-        <v>1934.533291375449</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U22" t="n">
-        <v>1654.348842875753</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V22" t="n">
-        <v>1372.637375483782</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="W22" t="n">
-        <v>1097.784971656295</v>
+        <v>1388.162932743222</v>
       </c>
       <c r="X22" t="n">
-        <v>855.2210751020999</v>
+        <v>1145.599036189027</v>
       </c>
       <c r="Y22" t="n">
-        <v>628.878306791842</v>
+        <v>919.256267878769</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>874.8142273119413</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C23" t="n">
-        <v>874.8142273119413</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D23" t="n">
-        <v>874.8142273119413</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E23" t="n">
-        <v>448.8372874597989</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F23" t="n">
-        <v>448.8372874597989</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>957.7672188505811</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L23" t="n">
-        <v>957.7672188505811</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M23" t="n">
-        <v>957.7672188505811</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N23" t="n">
-        <v>957.7672188505811</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O23" t="n">
-        <v>1218.160237973755</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P23" t="n">
-        <v>1768.825772958193</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q23" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2120.543958335516</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="T23" t="n">
-        <v>2120.543958335516</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="U23" t="n">
-        <v>1862.189048931929</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="V23" t="n">
-        <v>1862.189048931929</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="W23" t="n">
-        <v>1465.797699232276</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="X23" t="n">
-        <v>1054.077700400023</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="Y23" t="n">
-        <v>1054.077700400023</v>
+        <v>2200.537933061748</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K24" t="n">
-        <v>595.1637600336855</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L24" t="n">
-        <v>595.1637600336855</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M24" t="n">
-        <v>595.1637600336855</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N24" t="n">
-        <v>595.1637600336855</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O24" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P24" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q24" t="n">
         <v>1853.185855629757</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>505.7818726238041</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C25" t="n">
-        <v>505.7818726238041</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D25" t="n">
-        <v>505.7818726238041</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E25" t="n">
-        <v>505.7818726238041</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F25" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G25" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K25" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L25" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
         <v>1074.392270743914</v>
@@ -6174,25 +6174,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T25" t="n">
-        <v>1811.436857207411</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U25" t="n">
-        <v>1531.252408707715</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V25" t="n">
-        <v>1249.540941315744</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W25" t="n">
-        <v>974.688537488257</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X25" t="n">
-        <v>732.1246409340621</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y25" t="n">
-        <v>505.7818726238041</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1320.668515703089</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C26" t="n">
-        <v>893.7677857163897</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D26" t="n">
-        <v>470.47516490139</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E26" t="n">
-        <v>44.49822504924752</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>455.358312627159</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L26" t="n">
-        <v>1006.023847611597</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M26" t="n">
-        <v>1556.689382596035</v>
+        <v>572.914647509062</v>
       </c>
       <c r="N26" t="n">
-        <v>2107.354917580473</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O26" t="n">
-        <v>2107.354917580473</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P26" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462376</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V26" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="W26" t="n">
-        <v>2152.236878826872</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="X26" t="n">
-        <v>1740.51687999462</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="Y26" t="n">
-        <v>1740.51687999462</v>
+        <v>1745.792697513689</v>
       </c>
     </row>
     <row r="27">
@@ -6287,43 +6287,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>316.1957143288386</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="K27" t="n">
-        <v>316.1957143288386</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L27" t="n">
-        <v>866.8612493132766</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M27" t="n">
-        <v>1417.526784297715</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N27" t="n">
-        <v>1417.526784297715</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O27" t="n">
-        <v>1417.526784297715</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P27" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q27" t="n">
         <v>1771.166545545054</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>454.3200315065851</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C28" t="n">
-        <v>454.3200315065851</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D28" t="n">
-        <v>454.3200315065851</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E28" t="n">
-        <v>454.3200315065851</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F28" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G28" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6408,28 +6408,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U28" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V28" t="n">
-        <v>1202.502328002917</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W28" t="n">
-        <v>927.6499241754298</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X28" t="n">
-        <v>685.0860276212348</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y28" t="n">
-        <v>458.7432593109769</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1641.263477976561</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="C29" t="n">
-        <v>1214.362747989862</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D29" t="n">
-        <v>1214.362747989862</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E29" t="n">
-        <v>788.3858081377192</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F29" t="n">
-        <v>363.2616263271194</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G29" t="n">
-        <v>363.2616263271194</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H29" t="n">
-        <v>79.39509630577631</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
         <v>407.101683866143</v>
@@ -6469,46 +6469,46 @@
         <v>407.101683866143</v>
       </c>
       <c r="L29" t="n">
-        <v>549.9383681074139</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M29" t="n">
-        <v>549.9383681074139</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N29" t="n">
-        <v>549.9383681074139</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O29" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P29" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q29" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T29" t="n">
-        <v>1899.618387380149</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U29" t="n">
-        <v>1641.263477976561</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V29" t="n">
-        <v>1641.263477976561</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W29" t="n">
-        <v>1641.263477976561</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X29" t="n">
-        <v>1641.263477976561</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="Y29" t="n">
-        <v>1641.263477976561</v>
+        <v>804.1642048184415</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924752</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K30" t="n">
-        <v>44.49822504924752</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L30" t="n">
-        <v>44.49822504924752</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M30" t="n">
-        <v>595.1637600336854</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N30" t="n">
-        <v>751.8547856608814</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O30" t="n">
-        <v>1302.520320645319</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P30" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q30" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6609,16 +6609,16 @@
         <v>216.3599992746871</v>
       </c>
       <c r="F31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1320.668515703089</v>
+        <v>769.2673335619127</v>
       </c>
       <c r="C32" t="n">
-        <v>893.7677857163897</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="D32" t="n">
-        <v>470.47516490139</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E32" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L32" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M32" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N32" t="n">
-        <v>1696.494830002561</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O32" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P32" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462376</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W32" t="n">
-        <v>2224.911252462376</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X32" t="n">
-        <v>2145.854150039729</v>
+        <v>769.2673335619127</v>
       </c>
       <c r="Y32" t="n">
-        <v>1740.51687999462</v>
+        <v>769.2673335619127</v>
       </c>
     </row>
     <row r="33">
@@ -6761,46 +6761,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M33" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N33" t="n">
-        <v>1696.494830002561</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O33" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P33" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q33" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.679347573484</v>
+        <v>505.7818726238037</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524004</v>
+        <v>505.7818726238037</v>
       </c>
       <c r="D34" t="n">
-        <v>792.3900115791711</v>
+        <v>354.551463246861</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320246</v>
+        <v>354.551463246861</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6885,25 +6885,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T34" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U34" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y34" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1353.788838783518</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="C35" t="n">
-        <v>1353.788838783518</v>
+        <v>785.7748484986853</v>
       </c>
       <c r="D35" t="n">
-        <v>930.4962179685185</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E35" t="n">
-        <v>504.5192781163761</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F35" t="n">
-        <v>79.39509630577631</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G35" t="n">
-        <v>79.39509630577631</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H35" t="n">
-        <v>79.39509630577631</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L35" t="n">
-        <v>595.1637600336854</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M35" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N35" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O35" t="n">
-        <v>1768.825772958193</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P35" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T35" t="n">
-        <v>2185.357201907301</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U35" t="n">
-        <v>2185.357201907301</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V35" t="n">
-        <v>2185.357201907301</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W35" t="n">
-        <v>2185.357201907301</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X35" t="n">
-        <v>1773.637203075048</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="Y35" t="n">
-        <v>1773.637203075048</v>
+        <v>1212.675578485385</v>
       </c>
     </row>
     <row r="36">
@@ -6998,46 +6998,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L36" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M36" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N36" t="n">
-        <v>1696.494830002561</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O36" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P36" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q36" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R36" t="n">
         <v>1853.185855629757</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.8830790816388</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C37" t="n">
-        <v>811.9105159605548</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D37" t="n">
-        <v>648.5937430873255</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E37" t="n">
-        <v>482.385537240179</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F37" t="n">
-        <v>310.5237630147394</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G37" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H37" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7125,22 +7125,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T37" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U37" t="n">
-        <v>2199.519583877615</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V37" t="n">
-        <v>1917.808116485644</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W37" t="n">
-        <v>1642.955712658157</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X37" t="n">
-        <v>1400.391816103962</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y37" t="n">
-        <v>1174.049047793704</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1320.668515703089</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="C38" t="n">
-        <v>893.7677857163897</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D38" t="n">
-        <v>470.47516490139</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E38" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L38" t="n">
-        <v>957.767218850581</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M38" t="n">
-        <v>957.767218850581</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="N38" t="n">
-        <v>1508.432753835019</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O38" t="n">
-        <v>1508.432753835019</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P38" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U38" t="n">
-        <v>2152.236878826872</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V38" t="n">
-        <v>2152.236878826872</v>
+        <v>1621.221473695804</v>
       </c>
       <c r="W38" t="n">
-        <v>2152.236878826872</v>
+        <v>1621.221473695804</v>
       </c>
       <c r="X38" t="n">
-        <v>1740.51687999462</v>
+        <v>1209.501474863551</v>
       </c>
       <c r="Y38" t="n">
-        <v>1740.51687999462</v>
+        <v>804.1642048184415</v>
       </c>
     </row>
     <row r="39">
@@ -7235,46 +7235,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L39" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M39" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N39" t="n">
-        <v>1696.494830002561</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O39" t="n">
-        <v>1696.494830002561</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P39" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q39" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R39" t="n">
         <v>1853.185855629757</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1127.679347573484</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C40" t="n">
-        <v>955.7067844524004</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7356,28 +7356,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U40" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V40" t="n">
-        <v>1202.502328002917</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.502328002917</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.502328002917</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y40" t="n">
-        <v>1202.502328002917</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>887.3827134031578</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="C41" t="n">
-        <v>887.3827134031578</v>
+        <v>564.8492775433185</v>
       </c>
       <c r="D41" t="n">
-        <v>887.3827134031578</v>
+        <v>564.8492775433185</v>
       </c>
       <c r="E41" t="n">
-        <v>887.3827134031578</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F41" t="n">
-        <v>781.6025372422928</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G41" t="n">
         <v>377.2634748317415</v>
       </c>
       <c r="H41" t="n">
-        <v>79.39509630577631</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L41" t="n">
-        <v>407.101683866143</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M41" t="n">
-        <v>407.101683866143</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N41" t="n">
-        <v>667.4947029893167</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O41" t="n">
-        <v>1218.160237973755</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P41" t="n">
-        <v>1768.825772958193</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T41" t="n">
-        <v>1899.618387380149</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U41" t="n">
-        <v>1641.263477976561</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V41" t="n">
-        <v>1283.774063102811</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W41" t="n">
-        <v>887.3827134031578</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X41" t="n">
-        <v>887.3827134031578</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="Y41" t="n">
-        <v>887.3827134031578</v>
+        <v>991.7500075300184</v>
       </c>
     </row>
     <row r="42">
@@ -7472,46 +7472,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K42" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L42" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M42" t="n">
-        <v>751.8547856608814</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N42" t="n">
-        <v>751.8547856608814</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O42" t="n">
-        <v>1302.520320645319</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P42" t="n">
-        <v>1853.185855629757</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q42" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>884.1145108219147</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C43" t="n">
-        <v>712.1419477008307</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D43" t="n">
-        <v>548.8251748276014</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E43" t="n">
-        <v>382.6169689804549</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F43" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7596,25 +7596,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T43" t="n">
-        <v>1981.571904688275</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U43" t="n">
-        <v>1981.571904688275</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V43" t="n">
-        <v>1818.03954822592</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W43" t="n">
-        <v>1543.187144398433</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X43" t="n">
-        <v>1300.623247844238</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y43" t="n">
-        <v>1074.28047953398</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>802.3876566423412</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C44" t="n">
-        <v>802.3876566423412</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D44" t="n">
-        <v>802.3876566423412</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E44" t="n">
-        <v>802.3876566423412</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F44" t="n">
-        <v>377.2634748317415</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G44" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H44" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L44" t="n">
-        <v>1100.603903091852</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M44" t="n">
-        <v>1100.603903091852</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N44" t="n">
-        <v>1100.603903091852</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O44" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P44" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q44" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T44" t="n">
-        <v>1899.618387380149</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U44" t="n">
-        <v>1641.263477976561</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V44" t="n">
-        <v>1283.774063102811</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W44" t="n">
-        <v>887.3827134031578</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X44" t="n">
-        <v>802.3876566423412</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="Y44" t="n">
-        <v>802.3876566423412</v>
+        <v>991.7500075300184</v>
       </c>
     </row>
     <row r="45">
@@ -7709,40 +7709,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M45" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N45" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O45" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P45" t="n">
         <v>1389.040378766978</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>485.7509513926031</v>
+        <v>729.0902991667033</v>
       </c>
       <c r="C46" t="n">
-        <v>313.7783882715191</v>
+        <v>557.1177360456193</v>
       </c>
       <c r="D46" t="n">
-        <v>313.7783882715191</v>
+        <v>393.80096317239</v>
       </c>
       <c r="E46" t="n">
-        <v>313.7783882715191</v>
+        <v>393.80096317239</v>
       </c>
       <c r="F46" t="n">
-        <v>141.9166140460796</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G46" t="n">
-        <v>44.49822504924752</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
         <v>101.9895532734055</v>
@@ -7836,22 +7836,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T46" t="n">
-        <v>1981.571904688275</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U46" t="n">
-        <v>1701.38745618858</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V46" t="n">
-        <v>1419.675988796609</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.823584969122</v>
+        <v>1388.162932743222</v>
       </c>
       <c r="X46" t="n">
-        <v>902.2596884149267</v>
+        <v>1145.599036189027</v>
       </c>
       <c r="Y46" t="n">
-        <v>675.9169201046687</v>
+        <v>919.256267878769</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>480.0371081600193</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,25 +8057,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>375.4846162958659</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q3" t="n">
         <v>484.1469440493127</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8148,16 +8148,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160406</v>
+        <v>320.1078160920833</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,13 +8218,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8233,7 +8233,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>457.4303624918454</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8303,13 +8303,13 @@
         <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>183.8904958969894</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>99.28895563385618</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8318,7 +8318,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8391,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q7" t="n">
         <v>24.61956276478495</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>481.7770299789514</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>498.831168659766</v>
@@ -8467,16 +8467,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P9" t="n">
-        <v>457.0064649527129</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,16 +8613,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>361.8093214193388</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8631,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>480.1484446815972</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>107.8670228313366</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L12" t="n">
         <v>483.9149924745637</v>
@@ -8786,7 +8786,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>483.1707469651628</v>
+        <v>99.71676862514295</v>
       </c>
       <c r="Q12" t="n">
         <v>484.1469440493127</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8862,13 +8862,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>299.5718579722078</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L14" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>480.1484446815972</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>100.3451612536475</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>465.9293750477955</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q15" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9096,7 +9096,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O16" t="n">
         <v>381.5174992961649</v>
@@ -9105,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,28 +9166,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>111.3736009736648</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N17" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O17" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>452.5855512828691</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>180.6729970931272</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L18" t="n">
-        <v>578.7428998298235</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M18" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>372.4370567591071</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.7088046951723</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
@@ -9330,7 +9330,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281034</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>35.76460079480934</v>
@@ -9412,13 +9412,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>547.8252218830989</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P20" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9494,13 +9494,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>577.9986543204226</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q21" t="n">
-        <v>181.0208015487723</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9640,28 +9640,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N23" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>300.4142109955938</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9731,13 +9731,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>267.4386025673079</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9877,28 +9877,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>84.50867025038097</v>
+        <v>203.2524428583638</v>
       </c>
       <c r="L26" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>175.9092261537768</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L27" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -9971,10 +9971,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>378.9827212526463</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10117,7 +10117,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>182.5915214642096</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M29" t="n">
         <v>37.43126289943181</v>
@@ -10126,10 +10126,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P29" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10190,31 +10190,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>179.6167914733355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>577.9986543204226</v>
+        <v>466.3767193553316</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L32" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>452.4011488286619</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>181.445652982016</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>110.3411813754876</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L36" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>181.445652982016</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,28 +10825,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L38" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>300.4545145390017</v>
       </c>
       <c r="N38" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>181.854840841818</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>180.0446044646224</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>204.9191049629863</v>
       </c>
       <c r="N41" t="n">
-        <v>300.3028744740154</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O41" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>181.3705437721218</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>372.4370567591071</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L44" t="n">
-        <v>182.5915214642096</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
@@ -11311,10 +11311,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P44" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11393,7 +11393,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>267.4386025673079</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -22561,13 +22561,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>388.5578695803274</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>206.5847528750949</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,13 +22710,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22725,7 +22725,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>93.65471693532592</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,16 +22758,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>8.012633829489516</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -22786,22 +22786,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>255.0622712569945</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>243.9132285623457</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22947,19 +22947,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -22998,19 +22998,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>6.621633442415089</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>175.136418561402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>200.691786053594</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -23086,7 +23086,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>301.2835723090229</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -23187,10 +23187,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>85.77476340043019</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,25 +23229,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.671646776695354</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -23260,22 +23260,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>293.9764452515384</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23323,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>310.046628002395</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>17.88060597019778</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>18.07003502930996</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>309.3306541137075</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -23557,7 +23557,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>389.4318308533401</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.918124574028</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>206.334344054255</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>138.0318298857191</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23797,7 +23797,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>348.9253100933457</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>14.3115352710779</v>
+        <v>16.93792262753421</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24022,22 +24022,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>348.9253100933457</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>204.2484945621921</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>153.4739695386594</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>48.89490464996159</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>238.179042291414</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>79.19403497896869</v>
       </c>
       <c r="T23" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F25" t="n">
-        <v>119.1959337771383</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>400.2956717864458</v>
@@ -24499,16 +24499,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>135.3585116353645</v>
       </c>
       <c r="W26" t="n">
-        <v>320.4798063035083</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.8853134985971</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>13.86183001957585</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>325.2164753450601</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
@@ -24934,7 +24934,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>329.3362674455102</v>
+        <v>290.6685728010966</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>11.96549986132374</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>14.6334346765754</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>179.5578051962896</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>252.2448521157861</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25408,10 +25408,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>183.8237304104035</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>78.30157617751036</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>114.1895583998069</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>65.2394000376333</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>236.0072257691598</v>
       </c>
       <c r="F41" t="n">
-        <v>316.1505655932374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25836,16 +25836,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>116.9973198203195</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>173.055982519803</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25876,16 +25876,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>323.4576926507218</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>131.2861515569115</v>
       </c>
       <c r="G46" t="n">
-        <v>68.15019490184646</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26076,7 +26076,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>436411.2752603434</v>
+        <v>436411.2752603433</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>436411.2752603433</v>
+        <v>436411.2752603434</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436411.2752603434</v>
+        <v>436411.2752603433</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>491751.5163561997</v>
+        <v>491751.5163561998</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>491751.5163561998</v>
+        <v>491751.5163561999</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>491751.5163561997</v>
+        <v>491751.5163561999</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>491751.5163561996</v>
+        <v>491751.5163561998</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>491751.5163561996</v>
+        <v>491751.5163561999</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>491751.5163561997</v>
+        <v>491751.5163561998</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491751.5163561998</v>
+        <v>491751.5163561999</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>491751.5163561998</v>
+        <v>491751.5163561999</v>
       </c>
     </row>
   </sheetData>
@@ -26349,10 +26349,10 @@
         <v>127059.143630737</v>
       </c>
       <c r="N2" t="n">
-        <v>127059.1436307371</v>
+        <v>127059.143630737</v>
       </c>
       <c r="O2" t="n">
-        <v>127059.1436307371</v>
+        <v>127059.143630737</v>
       </c>
       <c r="P2" t="n">
         <v>127059.143630737</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25990.90698746637</v>
+        <v>25990.90698746642</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427568</v>
+        <v>120722.5169427569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>22820.43073295062</v>
+        <v>22820.43073295066</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,10 +26429,10 @@
         <v>23350.61219269669</v>
       </c>
       <c r="F4" t="n">
-        <v>23350.61219269668</v>
+        <v>23350.61219269669</v>
       </c>
       <c r="G4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043128</v>
       </c>
       <c r="H4" t="n">
         <v>26326.44296043127</v>
@@ -26441,25 +26441,25 @@
         <v>26326.44296043127</v>
       </c>
       <c r="J4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="K4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="L4" t="n">
         <v>26326.44296043127</v>
       </c>
       <c r="M4" t="n">
+        <v>26326.44296043128</v>
+      </c>
+      <c r="N4" t="n">
         <v>26326.44296043127</v>
       </c>
-      <c r="N4" t="n">
-        <v>26326.44296043126</v>
-      </c>
       <c r="O4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="P4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126895.0198005862</v>
+        <v>-127599.3796220777</v>
       </c>
       <c r="C6" t="n">
-        <v>27730.70081753426</v>
+        <v>27026.34099604277</v>
       </c>
       <c r="D6" t="n">
-        <v>27730.70081753428</v>
+        <v>27026.34099604277</v>
       </c>
       <c r="E6" t="n">
-        <v>61358.3008175343</v>
+        <v>60653.94099604277</v>
       </c>
       <c r="F6" t="n">
-        <v>61358.30081753428</v>
+        <v>60653.94099604279</v>
       </c>
       <c r="G6" t="n">
-        <v>40923.1426454113</v>
+        <v>40314.09693292156</v>
       </c>
       <c r="H6" t="n">
-        <v>66914.04963287766</v>
+        <v>66305.00392038796</v>
       </c>
       <c r="I6" t="n">
-        <v>66914.04963287766</v>
+        <v>66305.00392038797</v>
       </c>
       <c r="J6" t="n">
-        <v>-53808.46730987917</v>
+        <v>-54417.5130223689</v>
       </c>
       <c r="K6" t="n">
-        <v>66914.04963287766</v>
+        <v>66305.00392038797</v>
       </c>
       <c r="L6" t="n">
-        <v>66914.04963287768</v>
+        <v>66305.00392038797</v>
       </c>
       <c r="M6" t="n">
-        <v>66914.04963287764</v>
+        <v>66305.00392038796</v>
       </c>
       <c r="N6" t="n">
-        <v>66914.04963287769</v>
+        <v>66305.00392038797</v>
       </c>
       <c r="O6" t="n">
-        <v>44093.61889992708</v>
+        <v>43484.57318743729</v>
       </c>
       <c r="P6" t="n">
-        <v>66914.04963287764</v>
+        <v>66305.00392038794</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>94.82790735525975</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.399905760334</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>94.82790735525975</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>94.82790735525975</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>442.7574853255733</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>352.3878357835379</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603341</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34868,16 +34868,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404402</v>
+        <v>299.3589151164829</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>419.8550006816141</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35017,19 +35017,19 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M6" t="n">
-        <v>160.7937153846614</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35111,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P9" t="n">
-        <v>435.2356237478842</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35333,16 +35333,16 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8905615236376</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35351,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>442.7574853255731</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>85.46778899800329</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603341</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="Q12" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35582,13 +35582,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>359.0183117977405</v>
+        <v>277.0726704737833</v>
       </c>
       <c r="P13" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>442.7574853255733</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q15" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35816,7 +35816,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O16" t="n">
         <v>359.0183117977405</v>
@@ -35825,7 +35825,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O17" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>415.0101894726378</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>158.2737632597938</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L18" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127044</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
         <v>228.8157587937749</v>
@@ -36050,7 +36050,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366176</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36132,13 +36132,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>510.5455990486529</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O20" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P20" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>556.2278131155939</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.2737632597938</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>263.0232516395697</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>245.6677613624792</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>48.74406945557163</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="L26" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>357.2118800478177</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36837,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>144.2794790315867</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P29" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>158.2737632597939</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>556.2278131155939</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L32" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>415.0101894726378</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>73.06155854104156</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L38" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="N38" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>144.2794790315867</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>158.2737632597938</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="N41" t="n">
-        <v>263.0232516395694</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O41" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>158.2737632597939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L44" t="n">
-        <v>144.2794790315867</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P44" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>245.6677613624792</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
